--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.396921333333334</v>
+        <v>5.723418666666667</v>
       </c>
       <c r="H2">
-        <v>22.190764</v>
+        <v>17.170256</v>
       </c>
       <c r="I2">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="J2">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N2">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O2">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P2">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q2">
-        <v>17.87408837341689</v>
+        <v>12.34831011384533</v>
       </c>
       <c r="R2">
-        <v>160.866795360752</v>
+        <v>111.134791024608</v>
       </c>
       <c r="S2">
-        <v>0.03116428269362297</v>
+        <v>0.03940126109722443</v>
       </c>
       <c r="T2">
-        <v>0.03116428269362298</v>
+        <v>0.03940126109722443</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.396921333333334</v>
+        <v>5.723418666666667</v>
       </c>
       <c r="H3">
-        <v>22.190764</v>
+        <v>17.170256</v>
       </c>
       <c r="I3">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="J3">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.740964</v>
       </c>
       <c r="O3">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P3">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q3">
-        <v>21.55207436183289</v>
+        <v>16.67606550742045</v>
       </c>
       <c r="R3">
-        <v>193.968669256496</v>
+        <v>150.084589566784</v>
       </c>
       <c r="S3">
-        <v>0.03757701786039382</v>
+        <v>0.05321035875148424</v>
       </c>
       <c r="T3">
-        <v>0.03757701786039383</v>
+        <v>0.05321035875148424</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.396921333333334</v>
+        <v>5.723418666666667</v>
       </c>
       <c r="H4">
-        <v>22.190764</v>
+        <v>17.170256</v>
       </c>
       <c r="I4">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="J4">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N4">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O4">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P4">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q4">
-        <v>0.2161183162364445</v>
+        <v>0.1086648268053333</v>
       </c>
       <c r="R4">
-        <v>1.945064846128</v>
+        <v>0.9779834412480001</v>
       </c>
       <c r="S4">
-        <v>0.0003768120735309332</v>
+        <v>0.0003467301334002793</v>
       </c>
       <c r="T4">
-        <v>0.0003768120735309332</v>
+        <v>0.0003467301334002793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.396921333333334</v>
+        <v>5.723418666666667</v>
       </c>
       <c r="H5">
-        <v>22.190764</v>
+        <v>17.170256</v>
       </c>
       <c r="I5">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="J5">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N5">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O5">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P5">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q5">
-        <v>25.64085330777645</v>
+        <v>5.636975966737779</v>
       </c>
       <c r="R5">
-        <v>230.767679769988</v>
+        <v>50.73278370064001</v>
       </c>
       <c r="S5">
-        <v>0.04470598915565882</v>
+        <v>0.01798658762345011</v>
       </c>
       <c r="T5">
-        <v>0.04470598915565883</v>
+        <v>0.01798658762345011</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.396921333333334</v>
+        <v>5.723418666666667</v>
       </c>
       <c r="H6">
-        <v>22.190764</v>
+        <v>17.170256</v>
       </c>
       <c r="I6">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="J6">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N6">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O6">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P6">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q6">
-        <v>0.2109429369435556</v>
+        <v>0.01740491616533333</v>
       </c>
       <c r="R6">
-        <v>1.898486432492</v>
+        <v>0.156644245488</v>
       </c>
       <c r="S6">
-        <v>0.0003677885653127359</v>
+        <v>5.553599155536972E-05</v>
       </c>
       <c r="T6">
-        <v>0.0003677885653127359</v>
+        <v>5.553599155536972E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>105.206055</v>
       </c>
       <c r="I7">
-        <v>0.5413819144108915</v>
+        <v>0.6801250913372558</v>
       </c>
       <c r="J7">
-        <v>0.5413819144108915</v>
+        <v>0.680125091337256</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N7">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O7">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P7">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q7">
-        <v>84.74076532419333</v>
+        <v>75.66089829961</v>
       </c>
       <c r="R7">
-        <v>762.66688791774</v>
+        <v>680.9480846964899</v>
       </c>
       <c r="S7">
-        <v>0.147749362712381</v>
+        <v>0.2414204681668085</v>
       </c>
       <c r="T7">
-        <v>0.147749362712381</v>
+        <v>0.2414204681668085</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>105.206055</v>
       </c>
       <c r="I8">
-        <v>0.5413819144108915</v>
+        <v>0.6801250913372558</v>
       </c>
       <c r="J8">
-        <v>0.5413819144108915</v>
+        <v>0.680125091337256</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>8.740964</v>
       </c>
       <c r="O8">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P8">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q8">
         <v>102.1780377041133</v>
@@ -951,10 +951,10 @@
         <v>919.60233933702</v>
       </c>
       <c r="S8">
-        <v>0.1781520369355726</v>
+        <v>0.3260319432266113</v>
       </c>
       <c r="T8">
-        <v>0.1781520369355727</v>
+        <v>0.3260319432266113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>105.206055</v>
       </c>
       <c r="I9">
-        <v>0.5413819144108915</v>
+        <v>0.6801250913372558</v>
       </c>
       <c r="J9">
-        <v>0.5413819144108915</v>
+        <v>0.680125091337256</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N9">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O9">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P9">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q9">
-        <v>1.024613459206667</v>
+        <v>0.66581405341</v>
       </c>
       <c r="R9">
-        <v>9.221521132860001</v>
+        <v>5.99232648069</v>
       </c>
       <c r="S9">
-        <v>0.001786459976437017</v>
+        <v>0.002124494211656898</v>
       </c>
       <c r="T9">
-        <v>0.001786459976437017</v>
+        <v>0.002124494211656898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>105.206055</v>
       </c>
       <c r="I10">
-        <v>0.5413819144108915</v>
+        <v>0.6801250913372558</v>
       </c>
       <c r="J10">
-        <v>0.5413819144108915</v>
+        <v>0.680125091337256</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N10">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O10">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P10">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q10">
-        <v>121.5628728846317</v>
+        <v>34.53903096088334</v>
       </c>
       <c r="R10">
-        <v>1094.065855961685</v>
+        <v>310.85127864795</v>
       </c>
       <c r="S10">
-        <v>0.2119503751173076</v>
+        <v>0.1102079041090017</v>
       </c>
       <c r="T10">
-        <v>0.2119503751173076</v>
+        <v>0.1102079041090017</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>105.206055</v>
       </c>
       <c r="I11">
-        <v>0.5413819144108915</v>
+        <v>0.6801250913372558</v>
       </c>
       <c r="J11">
-        <v>0.5413819144108915</v>
+        <v>0.680125091337256</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N11">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O11">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P11">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q11">
-        <v>1.000077069268333</v>
+        <v>0.106643871085</v>
       </c>
       <c r="R11">
-        <v>9.000693623415001</v>
+        <v>0.959794839765</v>
       </c>
       <c r="S11">
-        <v>0.001743679669193128</v>
+        <v>0.0003402816231775322</v>
       </c>
       <c r="T11">
-        <v>0.001743679669193129</v>
+        <v>0.0003402816231775322</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.299122</v>
+        <v>1.571962</v>
       </c>
       <c r="H12">
-        <v>15.897366</v>
+        <v>4.715886</v>
       </c>
       <c r="I12">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130266</v>
       </c>
       <c r="J12">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130267</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N12">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O12">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P12">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q12">
-        <v>12.804918514232</v>
+        <v>3.391517446772</v>
       </c>
       <c r="R12">
-        <v>115.244266628088</v>
+        <v>30.523657020948</v>
       </c>
       <c r="S12">
-        <v>0.02232595543389089</v>
+        <v>0.01082172890088216</v>
       </c>
       <c r="T12">
-        <v>0.02232595543389089</v>
+        <v>0.01082172890088216</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.299122</v>
+        <v>1.571962</v>
       </c>
       <c r="H13">
-        <v>15.897366</v>
+        <v>4.715886</v>
       </c>
       <c r="I13">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130266</v>
       </c>
       <c r="J13">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130267</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>8.740964</v>
       </c>
       <c r="O13">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P13">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q13">
-        <v>15.439811544536</v>
+        <v>4.580154417122666</v>
       </c>
       <c r="R13">
-        <v>138.958303900824</v>
+        <v>41.221389754104</v>
       </c>
       <c r="S13">
-        <v>0.02692001078084637</v>
+        <v>0.01461445804250688</v>
       </c>
       <c r="T13">
-        <v>0.02692001078084637</v>
+        <v>0.01461445804250688</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.299122</v>
+        <v>1.571962</v>
       </c>
       <c r="H14">
-        <v>15.897366</v>
+        <v>4.715886</v>
       </c>
       <c r="I14">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130266</v>
       </c>
       <c r="J14">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130267</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N14">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O14">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P14">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q14">
-        <v>0.154826213848</v>
+        <v>0.029845270532</v>
       </c>
       <c r="R14">
-        <v>1.393435924632</v>
+        <v>0.268607434788</v>
       </c>
       <c r="S14">
-        <v>0.0002699465167643691</v>
+        <v>9.523094949082352E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002699465167643691</v>
+        <v>9.523094949082351E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.299122</v>
+        <v>1.571962</v>
       </c>
       <c r="H15">
-        <v>15.897366</v>
+        <v>4.715886</v>
       </c>
       <c r="I15">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130266</v>
       </c>
       <c r="J15">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130267</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N15">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O15">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P15">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q15">
-        <v>18.368994847858</v>
+        <v>1.548220133926667</v>
       </c>
       <c r="R15">
-        <v>165.320953630722</v>
+        <v>13.93398120534</v>
       </c>
       <c r="S15">
-        <v>0.03202717454881406</v>
+        <v>0.004940095055146624</v>
       </c>
       <c r="T15">
-        <v>0.03202717454881406</v>
+        <v>0.004940095055146624</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.299122</v>
+        <v>1.571962</v>
       </c>
       <c r="H16">
-        <v>15.897366</v>
+        <v>4.715886</v>
       </c>
       <c r="I16">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130266</v>
       </c>
       <c r="J16">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130267</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N16">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O16">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P16">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q16">
-        <v>0.151118594822</v>
+        <v>0.004780336442</v>
       </c>
       <c r="R16">
-        <v>1.360067353398</v>
+        <v>0.043023027978</v>
       </c>
       <c r="S16">
-        <v>0.0002634821150543292</v>
+        <v>1.525320327618215E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002634821150543292</v>
+        <v>1.525320327618215E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.974811333333333</v>
+        <v>2.548863333333333</v>
       </c>
       <c r="H17">
-        <v>29.924434</v>
+        <v>7.64659</v>
       </c>
       <c r="I17">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282269</v>
       </c>
       <c r="J17">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282271</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N17">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O17">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P17">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q17">
-        <v>24.10336020159022</v>
+        <v>5.499187934846666</v>
       </c>
       <c r="R17">
-        <v>216.930241814312</v>
+        <v>49.49269141361999</v>
       </c>
       <c r="S17">
-        <v>0.04202530028360731</v>
+        <v>0.01754693052295931</v>
       </c>
       <c r="T17">
-        <v>0.04202530028360731</v>
+        <v>0.01754693052295931</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.974811333333333</v>
+        <v>2.548863333333333</v>
       </c>
       <c r="H18">
-        <v>29.924434</v>
+        <v>7.64659</v>
       </c>
       <c r="I18">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282269</v>
       </c>
       <c r="J18">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282271</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>8.740964</v>
       </c>
       <c r="O18">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P18">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q18">
-        <v>29.06315559048622</v>
+        <v>7.426507545862221</v>
       </c>
       <c r="R18">
-        <v>261.568400314376</v>
+        <v>66.83856791276</v>
       </c>
       <c r="S18">
-        <v>0.05067292820022673</v>
+        <v>0.02369666457655097</v>
       </c>
       <c r="T18">
-        <v>0.05067292820022674</v>
+        <v>0.02369666457655098</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.974811333333333</v>
+        <v>2.548863333333333</v>
       </c>
       <c r="H19">
-        <v>29.924434</v>
+        <v>7.64659</v>
       </c>
       <c r="I19">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282269</v>
       </c>
       <c r="J19">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282271</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N19">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O19">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P19">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q19">
-        <v>0.2914373876631111</v>
+        <v>0.04839271924666667</v>
       </c>
       <c r="R19">
-        <v>2.622936488968</v>
+        <v>0.4355344732199999</v>
       </c>
       <c r="S19">
-        <v>0.0005081342861732727</v>
+        <v>0.0001544125591812517</v>
       </c>
       <c r="T19">
-        <v>0.0005081342861732726</v>
+        <v>0.0001544125591812517</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.974811333333333</v>
+        <v>2.548863333333333</v>
       </c>
       <c r="H20">
-        <v>29.924434</v>
+        <v>7.64659</v>
       </c>
       <c r="I20">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282269</v>
       </c>
       <c r="J20">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282271</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N20">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O20">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P20">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q20">
-        <v>34.57690877665311</v>
+        <v>2.510367000788889</v>
       </c>
       <c r="R20">
-        <v>311.192178989878</v>
+        <v>22.5933030071</v>
       </c>
       <c r="S20">
-        <v>0.0602864066281462</v>
+        <v>0.008010134563840945</v>
       </c>
       <c r="T20">
-        <v>0.0602864066281462</v>
+        <v>0.008010134563840945</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.974811333333333</v>
+        <v>2.548863333333333</v>
       </c>
       <c r="H21">
-        <v>29.924434</v>
+        <v>7.64659</v>
       </c>
       <c r="I21">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282269</v>
       </c>
       <c r="J21">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282271</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N21">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O21">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P21">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q21">
-        <v>0.2844583446668889</v>
+        <v>0.007751093396666666</v>
       </c>
       <c r="R21">
-        <v>2.560125102002</v>
+        <v>0.06975984057</v>
       </c>
       <c r="S21">
-        <v>0.0004959660085905854</v>
+        <v>2.473236029022365E-05</v>
       </c>
       <c r="T21">
-        <v>0.0004959660085905854</v>
+        <v>2.473236029022365E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.636677333333333</v>
+        <v>1.803093333333334</v>
       </c>
       <c r="H22">
-        <v>4.910031999999999</v>
+        <v>5.409280000000001</v>
       </c>
       <c r="I22">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764368</v>
       </c>
       <c r="J22">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764369</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N22">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O22">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P22">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q22">
-        <v>3.954904206286221</v>
+        <v>3.890184685226667</v>
       </c>
       <c r="R22">
-        <v>35.59413785657599</v>
+        <v>35.01166216704</v>
       </c>
       <c r="S22">
-        <v>0.006895554622758143</v>
+        <v>0.01241288735753236</v>
       </c>
       <c r="T22">
-        <v>0.006895554622758144</v>
+        <v>0.01241288735753236</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.636677333333333</v>
+        <v>1.803093333333334</v>
       </c>
       <c r="H23">
-        <v>4.910031999999999</v>
+        <v>5.409280000000001</v>
       </c>
       <c r="I23">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764368</v>
       </c>
       <c r="J23">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764369</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>8.740964</v>
       </c>
       <c r="O23">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P23">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q23">
-        <v>4.768712550094222</v>
+        <v>5.253591305102223</v>
       </c>
       <c r="R23">
-        <v>42.91841295084799</v>
+        <v>47.28232174592001</v>
       </c>
       <c r="S23">
-        <v>0.008314466331988622</v>
+        <v>0.01676327536335094</v>
       </c>
       <c r="T23">
-        <v>0.008314466331988625</v>
+        <v>0.01676327536335094</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.636677333333333</v>
+        <v>1.803093333333334</v>
       </c>
       <c r="H24">
-        <v>4.910031999999999</v>
+        <v>5.409280000000001</v>
       </c>
       <c r="I24">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764368</v>
       </c>
       <c r="J24">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764369</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N24">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O24">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P24">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q24">
-        <v>0.0478193472071111</v>
+        <v>0.03423353002666667</v>
       </c>
       <c r="R24">
-        <v>0.430374124864</v>
+        <v>0.30810177024</v>
       </c>
       <c r="S24">
-        <v>8.337519785363112E-05</v>
+        <v>0.0001092331049693996</v>
       </c>
       <c r="T24">
-        <v>8.337519785363114E-05</v>
+        <v>0.0001092331049693996</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.636677333333333</v>
+        <v>1.803093333333334</v>
       </c>
       <c r="H25">
-        <v>4.910031999999999</v>
+        <v>5.409280000000001</v>
       </c>
       <c r="I25">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764368</v>
       </c>
       <c r="J25">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764369</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N25">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O25">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P25">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q25">
-        <v>5.67341486072711</v>
+        <v>1.775860613688889</v>
       </c>
       <c r="R25">
-        <v>51.060733746544</v>
+        <v>15.9827455232</v>
       </c>
       <c r="S25">
-        <v>0.009891855789459874</v>
+        <v>0.005666455334141566</v>
       </c>
       <c r="T25">
-        <v>0.009891855789459876</v>
+        <v>0.005666455334141566</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.636677333333333</v>
+        <v>1.803093333333334</v>
       </c>
       <c r="H26">
-        <v>4.910031999999999</v>
+        <v>5.409280000000001</v>
       </c>
       <c r="I26">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764368</v>
       </c>
       <c r="J26">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764369</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,28 +2049,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N26">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O26">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P26">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q26">
-        <v>0.04667421863288888</v>
+        <v>0.005483206826666667</v>
       </c>
       <c r="R26">
-        <v>0.420067967696</v>
+        <v>0.04934886144</v>
       </c>
       <c r="S26">
-        <v>8.137861431538017E-05</v>
+        <v>1.749593764942295E-05</v>
       </c>
       <c r="T26">
-        <v>8.137861431538019E-05</v>
+        <v>1.749593764942295E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.400023333333333</v>
+        <v>4.846088000000001</v>
       </c>
       <c r="H27">
-        <v>16.20007</v>
+        <v>14.538264</v>
       </c>
       <c r="I27">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386063</v>
       </c>
       <c r="J27">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386064</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N27">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O27">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P27">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q27">
-        <v>13.04873878319555</v>
+        <v>10.455463936528</v>
       </c>
       <c r="R27">
-        <v>117.43864904876</v>
+        <v>94.09917542875199</v>
       </c>
       <c r="S27">
-        <v>0.02275106711677348</v>
+        <v>0.03336152563854484</v>
       </c>
       <c r="T27">
-        <v>0.02275106711677348</v>
+        <v>0.03336152563854484</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.400023333333333</v>
+        <v>4.846088000000001</v>
       </c>
       <c r="H28">
-        <v>16.20007</v>
+        <v>14.538264</v>
       </c>
       <c r="I28">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386063</v>
       </c>
       <c r="J28">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386064</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2179,22 +2179,22 @@
         <v>8.740964</v>
       </c>
       <c r="O28">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P28">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q28">
-        <v>15.73380318527555</v>
+        <v>14.11982691627733</v>
       </c>
       <c r="R28">
-        <v>141.60422866748</v>
+        <v>127.078442246496</v>
       </c>
       <c r="S28">
-        <v>0.02743259852295442</v>
+        <v>0.04505385610230786</v>
       </c>
       <c r="T28">
-        <v>0.02743259852295443</v>
+        <v>0.04505385610230787</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.400023333333333</v>
+        <v>4.846088000000001</v>
       </c>
       <c r="H29">
-        <v>16.20007</v>
+        <v>14.538264</v>
       </c>
       <c r="I29">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386063</v>
       </c>
       <c r="J29">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386064</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N29">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O29">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P29">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q29">
-        <v>0.1577742817377778</v>
+        <v>0.09200782676800001</v>
       </c>
       <c r="R29">
-        <v>1.41996853564</v>
+        <v>0.828070440912</v>
       </c>
       <c r="S29">
-        <v>0.0002750866066642079</v>
+        <v>0.0002935806091725411</v>
       </c>
       <c r="T29">
-        <v>0.000275086606664208</v>
+        <v>0.000293580609172541</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.400023333333333</v>
+        <v>4.846088000000001</v>
       </c>
       <c r="H30">
-        <v>16.20007</v>
+        <v>14.538264</v>
       </c>
       <c r="I30">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386063</v>
       </c>
       <c r="J30">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386064</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N30">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O30">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P30">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q30">
-        <v>18.71876148318778</v>
+        <v>4.772895917573335</v>
       </c>
       <c r="R30">
-        <v>168.46885334869</v>
+        <v>42.95606325816001</v>
       </c>
       <c r="S30">
-        <v>0.03263700852034269</v>
+        <v>0.01522946188623223</v>
       </c>
       <c r="T30">
-        <v>0.03263700852034269</v>
+        <v>0.01522946188623223</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,7 +2332,7 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.400023333333333</v>
+        <v>4.846088000000001</v>
       </c>
       <c r="H31">
-        <v>16.20007</v>
+        <v>14.538264</v>
       </c>
       <c r="I31">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386063</v>
       </c>
       <c r="J31">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386064</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,28 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N31">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O31">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P31">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q31">
-        <v>0.1539960654122222</v>
+        <v>0.014736953608</v>
       </c>
       <c r="R31">
-        <v>1.38596458871</v>
+        <v>0.132632582472</v>
       </c>
       <c r="S31">
-        <v>0.0002684991153646577</v>
+        <v>4.702299760316535E-05</v>
       </c>
       <c r="T31">
-        <v>0.0002684991153646578</v>
+        <v>4.702299760316535E-05</v>
       </c>
     </row>
   </sheetData>
